--- a/Assets/Data/Data_Character.xlsx
+++ b/Assets/Data/Data_Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>80</v>
